--- a/data/long_razon/P31-Estudios-long_razon.xlsx
+++ b/data/long_razon/P31-Estudios-long_razon.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>147,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>13,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>28,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-8,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>73,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>62,4; 343,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-19,19; 71,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-27,11; 80,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-29,6; 20,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>26,59; 142,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-18,87; 26,74</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -681,32 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>12,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-21,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>58,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-13,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>32,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-17,69%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -719,32 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,58; 37,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-35,37; -4,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>33,49; 90,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-25,99; 2,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>14,6; 51,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-28,17; -7,4</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -761,32 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>12,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-16,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>42,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-17,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>26,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-16,9%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -799,39 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,2; 39,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-30,6; 1,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>18,29; 71,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-30,67; -4,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,34; 45,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-26,32; -4,72</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -841,32 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>26,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-14,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>47,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-13,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>36,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-14,04%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -879,42 +1015,175 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,95; 47,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-24,4; -1,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>27,48; 69,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-22,9; -4,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>24,55; 52,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-20,69; -6,22</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>

--- a/data/long_razon/P31-Estudios-long_razon.xlsx
+++ b/data/long_razon/P31-Estudios-long_razon.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +140,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -630,329 +635,217 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>1.081194427519164</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.1373558471240303</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.3004427540627338</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.3663356284826954</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-0.01430932938136308</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-0.3601956990372473</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0.6418535334940157</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>0.05403242185589764</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>-0.3341134330851804</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>0.2850041015072318</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.1916785890704898</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.6341928977490859</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.146697183496505</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.2377944540912004</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.5476112481124882</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>0.174372502567741</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.148867066418671</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.5097647210979354</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>2.606546019054538</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.6542988113644458</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.1082702022414743</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>1.101266219336083</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>0.2595030722273493</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>-0.08265880967639508</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>1.267429500852251</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0.3081287987178736</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>-0.100208221451761</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-0.07757881760747318</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.2335792456331739</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.3474216922298919</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.7164285948172432</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-0.1032289249765979</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-0.08875258898810651</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0.2458705024634523</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>-0.175875965717017</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>-0.2379968363060146</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.2855594953610505</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.3613308376309627</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.4866492335243248</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>0.3956199050829216</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.2331962794655501</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.2698549006907949</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>0.04622895229997485</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.2774890589033872</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.3476934895444481</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>0.1571418095982249</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>-0.0587603845835889</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>-0.1774625700522254</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>1.083634206765446</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.06200427583005787</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.09280687505250845</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.4607364063784219</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>-0.06432728817398868</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>-0.1068236675677708</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -960,233 +853,230 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>0.09685439458173696</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.1634311893751891</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.3524722192919909</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.5036396155124283</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-0.1627524444070896</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>-0.1693447343155069</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0.2804478384435739</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>-0.163086339406286</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>-0.2654101502080466</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-0.1219191268367201</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.2975346150527319</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.4968894836266691</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.2276056623863016</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.2892494568968104</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.3084833269284982</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>0.08078656371884488</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.2609658088984007</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.3719586914111492</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>0.4175855956038999</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.03611700872793806</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>-0.1751295551581703</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0.8457714308825793</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>-0.01826512796373059</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>-0.007617353673994333</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>0.5171980171799198</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>-0.04867552254962685</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>-0.1492889448371232</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>0.08327067734944532</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.1543151800527196</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.3412954834336891</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.5792957659189425</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-0.1080876518335036</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-0.1846135740560231</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.3056718288652481</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>-0.1319336337030737</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>-0.2675510427407346</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.08809115581694564</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.2601413970113547</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.4485782836467437</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.3574004144006652</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.2000914126092057</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.2769386562230234</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>0.1710977008318977</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.2039683340710767</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>-0.3352335589416621</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>0.2637706019644921</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>-0.04253801969057737</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>-0.2239261559876088</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.7941964192862165</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>-0.009984397694683454</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>-0.08053087214748618</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.4548275072704701</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>-0.05414579688511842</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>-0.1853679571155035</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
